--- a/Zeitaufstellung.xlsx
+++ b/Zeitaufstellung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorfi\Documents\Projects\ordersprinter.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDF960E-7E2A-4074-84C6-196601973E69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB82DA3E-7A34-43DC-8E08-B6F5E01C7C8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E4C9AB34-0394-44A6-8761-F1EA26D02723}"/>
   </bookViews>
@@ -1362,10 +1362,10 @@
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0</c:v>
@@ -2478,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B8C300-DD5E-420B-BB4E-942D01C3A6F8}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="87" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="87" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2932,7 +2932,7 @@
         <v>43738</v>
       </c>
       <c r="B56" s="9">
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2940,7 +2940,7 @@
         <v>43739</v>
       </c>
       <c r="B57" s="9">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
